--- a/wireframes/Sam's Work File/Bible.Feud.-.Sample.Questions (1).xlsx
+++ b/wireframes/Sam's Work File/Bible.Feud.-.Sample.Questions (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\bible_feud\Bible_feud_Host\wireframes\Sam's Work File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8295096E-29B8-4167-994E-C0C94912E1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5CC35B-8F53-4C00-9DAB-98F203A4AAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CF2B439-9DF9-4E31-ACBA-88622013A7C3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve"> In the book of Genesis, what was the name of the first human that Jehovah created?</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Provide the name and describe the illness that Job suffered during his tribulation?</t>
+  </si>
+  <si>
+    <t>What is the name of Jacob's oldest son?</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F13F708-2D70-450D-A9DC-741AD6144F69}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +621,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
